--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMD_PC\Desktop\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4BFD8-EFD0-4973-9DF9-F037886715DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589E1B8-5F27-4B12-8E1E-17C7F7D41095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,6 @@
     <t>nir</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>BOD</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>NH3-N</t>
-  </si>
-  <si>
     <t>blue</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -53,6 +38,26 @@
   </si>
   <si>
     <t>rededge</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nh3n</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1007,42 +1012,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1368,5 +1373,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMD_PC\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMD_PC\Desktop\github\data-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589E1B8-5F27-4B12-8E1E-17C7F7D41095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1538DB36-D5D5-4C69-99CB-E4F50623ADC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
